--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Fgf1-Cspg4.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Fgf1-Cspg4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -88,7 +91,7 @@
     <t>Cspg4</t>
   </si>
   <si>
-    <t>ECs</t>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>5.01836676186039</v>
+        <v>1.161357666666667</v>
       </c>
       <c r="H2">
-        <v>5.01836676186039</v>
+        <v>3.484073</v>
       </c>
       <c r="I2">
-        <v>0.6787077035312032</v>
+        <v>0.1270850363824361</v>
       </c>
       <c r="J2">
-        <v>0.6787077035312032</v>
+        <v>0.1270850363824361</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.03881418745127</v>
+        <v>1.577167666666667</v>
       </c>
       <c r="N2">
-        <v>1.03881418745127</v>
+        <v>4.731503</v>
       </c>
       <c r="O2">
-        <v>0.03957566921235033</v>
+        <v>0.05487405574265763</v>
       </c>
       <c r="P2">
-        <v>0.03957566921235033</v>
+        <v>0.05487405574265762</v>
       </c>
       <c r="Q2">
-        <v>5.213150590054462</v>
+        <v>1.831655761302111</v>
       </c>
       <c r="R2">
-        <v>5.213150590054462</v>
+        <v>16.484901851719</v>
       </c>
       <c r="S2">
-        <v>0.02686031156682483</v>
+        <v>0.006973671370507471</v>
       </c>
       <c r="T2">
-        <v>0.02686031156682483</v>
+        <v>0.00697367137050747</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>5.01836676186039</v>
+        <v>1.161357666666667</v>
       </c>
       <c r="H3">
-        <v>5.01836676186039</v>
+        <v>3.484073</v>
       </c>
       <c r="I3">
-        <v>0.6787077035312032</v>
+        <v>0.1270850363824361</v>
       </c>
       <c r="J3">
-        <v>0.6787077035312032</v>
+        <v>0.1270850363824361</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.0408738439599</v>
+        <v>12.088216</v>
       </c>
       <c r="N3">
-        <v>12.0408738439599</v>
+        <v>36.264648</v>
       </c>
       <c r="O3">
-        <v>0.4587207664590658</v>
+        <v>0.4205827019109694</v>
       </c>
       <c r="P3">
-        <v>0.4587207664590658</v>
+        <v>0.4205827019109694</v>
       </c>
       <c r="Q3">
-        <v>60.42552108228251</v>
+        <v>14.03874232792267</v>
       </c>
       <c r="R3">
-        <v>60.42552108228251</v>
+        <v>126.348680951304</v>
       </c>
       <c r="S3">
-        <v>0.311337317965506</v>
+        <v>0.05344976797417882</v>
       </c>
       <c r="T3">
-        <v>0.311337317965506</v>
+        <v>0.05344976797417882</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>5.01836676186039</v>
+        <v>1.161357666666667</v>
       </c>
       <c r="H4">
-        <v>5.01836676186039</v>
+        <v>3.484073</v>
       </c>
       <c r="I4">
-        <v>0.6787077035312032</v>
+        <v>0.1270850363824361</v>
       </c>
       <c r="J4">
-        <v>0.6787077035312032</v>
+        <v>0.1270850363824361</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>13.1691211012235</v>
+        <v>0.06147399999999999</v>
       </c>
       <c r="N4">
-        <v>13.1691211012235</v>
+        <v>0.184422</v>
       </c>
       <c r="O4">
-        <v>0.501703564328584</v>
+        <v>0.002138851673172859</v>
       </c>
       <c r="P4">
-        <v>0.501703564328584</v>
+        <v>0.002138851673172859</v>
       </c>
       <c r="Q4">
-        <v>66.08747961729431</v>
+        <v>0.07139330120066667</v>
       </c>
       <c r="R4">
-        <v>66.08747961729431</v>
+        <v>0.6425397108059999</v>
       </c>
       <c r="S4">
-        <v>0.3405100739988725</v>
+        <v>0.0002718160427018071</v>
       </c>
       <c r="T4">
-        <v>0.3405100739988725</v>
+        <v>0.0002718160427018071</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>2.37563618779034</v>
+        <v>1.161357666666667</v>
       </c>
       <c r="H5">
-        <v>2.37563618779034</v>
+        <v>3.484073</v>
       </c>
       <c r="I5">
-        <v>0.3212922964687967</v>
+        <v>0.1270850363824361</v>
       </c>
       <c r="J5">
-        <v>0.3212922964687967</v>
+        <v>0.1270850363824361</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.03881418745127</v>
+        <v>15.01473333333333</v>
       </c>
       <c r="N5">
-        <v>1.03881418745127</v>
+        <v>45.0442</v>
       </c>
       <c r="O5">
-        <v>0.03957566921235033</v>
+        <v>0.5224043906732001</v>
       </c>
       <c r="P5">
-        <v>0.03957566921235033</v>
+        <v>0.5224043906732001</v>
       </c>
       <c r="Q5">
-        <v>2.467844576099254</v>
+        <v>17.43747566962222</v>
       </c>
       <c r="R5">
-        <v>2.467844576099254</v>
+        <v>156.9372810266</v>
       </c>
       <c r="S5">
-        <v>0.01271535764552549</v>
+        <v>0.066389780995048</v>
       </c>
       <c r="T5">
-        <v>0.01271535764552549</v>
+        <v>0.066389780995048</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.37563618779034</v>
+        <v>5.168173666666667</v>
       </c>
       <c r="H6">
-        <v>2.37563618779034</v>
+        <v>15.504521</v>
       </c>
       <c r="I6">
-        <v>0.3212922964687967</v>
+        <v>0.565542861868062</v>
       </c>
       <c r="J6">
-        <v>0.3212922964687967</v>
+        <v>0.565542861868062</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.0408738439599</v>
+        <v>1.577167666666667</v>
       </c>
       <c r="N6">
-        <v>12.0408738439599</v>
+        <v>4.731503</v>
       </c>
       <c r="O6">
-        <v>0.4587207664590658</v>
+        <v>0.05487405574265763</v>
       </c>
       <c r="P6">
-        <v>0.4587207664590658</v>
+        <v>0.05487405574265762</v>
       </c>
       <c r="Q6">
-        <v>28.60473563632931</v>
+        <v>8.15107640278478</v>
       </c>
       <c r="R6">
-        <v>28.60473563632931</v>
+        <v>73.359687625063</v>
       </c>
       <c r="S6">
-        <v>0.1473834484935598</v>
+        <v>0.03103363052701016</v>
       </c>
       <c r="T6">
-        <v>0.1473834484935598</v>
+        <v>0.03103363052701015</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +832,433 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.37563618779034</v>
+        <v>5.168173666666667</v>
       </c>
       <c r="H7">
-        <v>2.37563618779034</v>
+        <v>15.504521</v>
       </c>
       <c r="I7">
-        <v>0.3212922964687967</v>
+        <v>0.565542861868062</v>
       </c>
       <c r="J7">
-        <v>0.3212922964687967</v>
+        <v>0.565542861868062</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.1691211012235</v>
+        <v>12.088216</v>
       </c>
       <c r="N7">
-        <v>13.1691211012235</v>
+        <v>36.264648</v>
       </c>
       <c r="O7">
-        <v>0.501703564328584</v>
+        <v>0.4205827019109694</v>
       </c>
       <c r="P7">
-        <v>0.501703564328584</v>
+        <v>0.4205827019109694</v>
       </c>
       <c r="Q7">
-        <v>31.28504064945992</v>
+        <v>62.47399960817868</v>
       </c>
       <c r="R7">
-        <v>31.28504064945992</v>
+        <v>562.2659964736081</v>
       </c>
       <c r="S7">
-        <v>0.1611934903297114</v>
+        <v>0.2378575448909317</v>
       </c>
       <c r="T7">
-        <v>0.1611934903297114</v>
+        <v>0.2378575448909316</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>5.168173666666667</v>
+      </c>
+      <c r="H8">
+        <v>15.504521</v>
+      </c>
+      <c r="I8">
+        <v>0.565542861868062</v>
+      </c>
+      <c r="J8">
+        <v>0.565542861868062</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.06147399999999999</v>
+      </c>
+      <c r="N8">
+        <v>0.184422</v>
+      </c>
+      <c r="O8">
+        <v>0.002138851673172859</v>
+      </c>
+      <c r="P8">
+        <v>0.002138851673172859</v>
+      </c>
+      <c r="Q8">
+        <v>0.3177083079846666</v>
+      </c>
+      <c r="R8">
+        <v>2.859374771862</v>
+      </c>
+      <c r="S8">
+        <v>0.001209612296357472</v>
+      </c>
+      <c r="T8">
+        <v>0.001209612296357472</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>5.168173666666667</v>
+      </c>
+      <c r="H9">
+        <v>15.504521</v>
+      </c>
+      <c r="I9">
+        <v>0.565542861868062</v>
+      </c>
+      <c r="J9">
+        <v>0.565542861868062</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>15.01473333333333</v>
+      </c>
+      <c r="N9">
+        <v>45.0442</v>
+      </c>
+      <c r="O9">
+        <v>0.5224043906732001</v>
+      </c>
+      <c r="P9">
+        <v>0.5224043906732001</v>
+      </c>
+      <c r="Q9">
+        <v>77.59874942535555</v>
+      </c>
+      <c r="R9">
+        <v>698.3887448281999</v>
+      </c>
+      <c r="S9">
+        <v>0.2954420741537627</v>
+      </c>
+      <c r="T9">
+        <v>0.2954420741537627</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.808898333333333</v>
+      </c>
+      <c r="H10">
+        <v>8.426695</v>
+      </c>
+      <c r="I10">
+        <v>0.3073721017495019</v>
+      </c>
+      <c r="J10">
+        <v>0.3073721017495019</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.577167666666667</v>
+      </c>
+      <c r="N10">
+        <v>4.731503</v>
+      </c>
+      <c r="O10">
+        <v>0.05487405574265763</v>
+      </c>
+      <c r="P10">
+        <v>0.05487405574265762</v>
+      </c>
+      <c r="Q10">
+        <v>4.430103630287222</v>
+      </c>
+      <c r="R10">
+        <v>39.870932672585</v>
+      </c>
+      <c r="S10">
+        <v>0.01686675384514</v>
+      </c>
+      <c r="T10">
+        <v>0.01686675384514</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.808898333333333</v>
+      </c>
+      <c r="H11">
+        <v>8.426695</v>
+      </c>
+      <c r="I11">
+        <v>0.3073721017495019</v>
+      </c>
+      <c r="J11">
+        <v>0.3073721017495019</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>12.088216</v>
+      </c>
+      <c r="N11">
+        <v>36.264648</v>
+      </c>
+      <c r="O11">
+        <v>0.4205827019109694</v>
+      </c>
+      <c r="P11">
+        <v>0.4205827019109694</v>
+      </c>
+      <c r="Q11">
+        <v>33.95456977537334</v>
+      </c>
+      <c r="R11">
+        <v>305.59112797836</v>
+      </c>
+      <c r="S11">
+        <v>0.1292753890458589</v>
+      </c>
+      <c r="T11">
+        <v>0.1292753890458589</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.808898333333333</v>
+      </c>
+      <c r="H12">
+        <v>8.426695</v>
+      </c>
+      <c r="I12">
+        <v>0.3073721017495019</v>
+      </c>
+      <c r="J12">
+        <v>0.3073721017495019</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.06147399999999999</v>
+      </c>
+      <c r="N12">
+        <v>0.184422</v>
+      </c>
+      <c r="O12">
+        <v>0.002138851673172859</v>
+      </c>
+      <c r="P12">
+        <v>0.002138851673172859</v>
+      </c>
+      <c r="Q12">
+        <v>0.1726742161433333</v>
+      </c>
+      <c r="R12">
+        <v>1.55406794529</v>
+      </c>
+      <c r="S12">
+        <v>0.0006574233341135805</v>
+      </c>
+      <c r="T12">
+        <v>0.0006574233341135805</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.808898333333333</v>
+      </c>
+      <c r="H13">
+        <v>8.426695</v>
+      </c>
+      <c r="I13">
+        <v>0.3073721017495019</v>
+      </c>
+      <c r="J13">
+        <v>0.3073721017495019</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>15.01473333333333</v>
+      </c>
+      <c r="N13">
+        <v>45.0442</v>
+      </c>
+      <c r="O13">
+        <v>0.5224043906732001</v>
+      </c>
+      <c r="P13">
+        <v>0.5224043906732001</v>
+      </c>
+      <c r="Q13">
+        <v>42.17485943544445</v>
+      </c>
+      <c r="R13">
+        <v>379.573734919</v>
+      </c>
+      <c r="S13">
+        <v>0.1605725355243894</v>
+      </c>
+      <c r="T13">
+        <v>0.1605725355243894</v>
       </c>
     </row>
   </sheetData>
